--- a/SmartEnergy/user_profile_calc.xlsx
+++ b/SmartEnergy/user_profile_calc.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18718"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaniTower\Dropbox\Private\smart energy project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="0AC04DF9809125E3615100A2D9F68D14F105C2A9" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{8F60E4E8-C260-4F70-843A-A5226EA4DD87}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+  <si>
+    <t>Smart Energy Project: User Profiling and Energy/CO2 Calculations</t>
+  </si>
   <si>
     <t>Car</t>
   </si>
@@ -32,21 +36,96 @@
     <t>Entry Options</t>
   </si>
   <si>
+    <t>Car Type or specific fuel efficency</t>
+  </si>
+  <si>
+    <t>Enter specific value if known (x l/100km)</t>
+  </si>
+  <si>
     <t>Small (x l/100km)</t>
   </si>
   <si>
-    <t>Enter specific value if known (x l/100km)</t>
-  </si>
-  <si>
     <t>Medium (x l/100km)</t>
   </si>
   <si>
     <t>Big (x l/100km)</t>
   </si>
   <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Energy in MJ/kg</t>
+  </si>
+  <si>
+    <t>Density in kg/L</t>
+  </si>
+  <si>
+    <t>Energy in MJ/L</t>
+  </si>
+  <si>
+    <t>Energy Intensity in kWh/L</t>
+  </si>
+  <si>
+    <t>Carbon Footprint in g CO2-eq/MJ</t>
+  </si>
+  <si>
+    <t>Carbon Footprint in g CO2-eq/L</t>
+  </si>
+  <si>
+    <t>Value Petrol</t>
+  </si>
+  <si>
+    <t>Value Diesel</t>
+  </si>
+  <si>
+    <t>Tramway</t>
+  </si>
+  <si>
+    <t>Energy Intensity in kWh/km</t>
+  </si>
+  <si>
+    <t>Carbon Footprint in g CO2-eq/kWh</t>
+  </si>
+  <si>
+    <t>Carbon Footprint in g CO2-eq/km</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Flying</t>
+  </si>
+  <si>
+    <t>Energy Intensity in L/km (Jet Fuel)</t>
+  </si>
+  <si>
+    <t>Value (&lt;463 km)</t>
+  </si>
+  <si>
+    <t>Value (463 km - 3000 km)</t>
+  </si>
+  <si>
+    <t>Value (&gt;3000 km)</t>
+  </si>
+  <si>
     <t>Dietary Attitude</t>
   </si>
   <si>
+    <t>Diet Type</t>
+  </si>
+  <si>
     <t>Meat Lover</t>
   </si>
   <si>
@@ -62,49 +141,13 @@
     <t>Vegan</t>
   </si>
   <si>
-    <t>Car Type or specific fuel efficency</t>
-  </si>
-  <si>
-    <t>Fuel Type</t>
-  </si>
-  <si>
-    <t>Petrol</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>Tramway</t>
-  </si>
-  <si>
-    <t>Calculations</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Carbon Footprint in g CO2-eq/MJ</t>
-  </si>
-  <si>
-    <t>Carbon Footprint in g CO2-eq/L</t>
-  </si>
-  <si>
-    <t>Density in kg/L</t>
-  </si>
-  <si>
-    <t>Energy in MJ/kg</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Value Petrol</t>
-  </si>
-  <si>
-    <t>Value Diesel</t>
-  </si>
-  <si>
-    <t>Diet Type</t>
+    <t>Walking (~4 km/h)</t>
+  </si>
+  <si>
+    <t>Cycling (~17.5 km/h)</t>
+  </si>
+  <si>
+    <t>Foodprint in g CO2-eq/(Person*Year)</t>
   </si>
   <si>
     <t>Average Daily Caloric Intake in kcal</t>
@@ -113,59 +156,20 @@
     <t>Average Daily Caloric Intake in kWh</t>
   </si>
   <si>
-    <t>Cycling (~17.5 km/h)</t>
-  </si>
-  <si>
-    <t>Walking (~4 km/h)</t>
-  </si>
-  <si>
-    <t>Energy Intensity in kWh/km</t>
-  </si>
-  <si>
-    <t>Foodprint in g CO2-eq/(Person*Year)</t>
-  </si>
-  <si>
-    <t>Carbon Footprint in g CO2-eq/kWh</t>
-  </si>
-  <si>
     <t>Walking Carbon Footprint in g CO2-eq/km</t>
   </si>
   <si>
     <t>Cycling Carbon Footprint in g CO2-eq/km</t>
   </si>
   <si>
-    <t>Smart Energy Project: User Profiling and Energy/CO2 Calculations</t>
-  </si>
-  <si>
-    <t>Energy Intensity in kWh/L</t>
-  </si>
-  <si>
-    <t>Carbon Footprint in g CO2-eq/km</t>
-  </si>
-  <si>
-    <t>Energy in MJ/L</t>
-  </si>
-  <si>
-    <t>Flying</t>
-  </si>
-  <si>
-    <t>Value (&lt;463 km)</t>
-  </si>
-  <si>
-    <t>Value (463 km - 3000 km)</t>
-  </si>
-  <si>
-    <t>Value (&gt;3000 km)</t>
-  </si>
-  <si>
-    <t>Energy Intensity in L/km (Jet Fuel)</t>
+    <t>Running Carbon Footprint in g CO2-eq/km</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,14 +564,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="H40" sqref="H40:H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" customWidth="1"/>
@@ -576,87 +580,88 @@
     <col min="5" max="5" width="40.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="41.42578125" customWidth="1"/>
     <col min="7" max="7" width="40.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>19</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
       </c>
       <c r="B10">
         <v>46.4</v>
@@ -680,9 +685,9 @@
         <v>2336.2380048231998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>48</v>
@@ -706,36 +711,36 @@
         <v>2769.4225268736</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
       <c r="D18" s="10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E18"/>
       <c r="F18" s="1"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B19" s="8">
         <f>4.75/53</f>
@@ -752,33 +757,33 @@
       <c r="F19" s="1"/>
       <c r="G19"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B25" s="11">
         <v>0.1</v>
@@ -791,9 +796,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B26" s="11">
         <v>5.8999999999999997E-2</v>
@@ -806,9 +811,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B27" s="11">
         <v>4.4999999999999998E-2</v>
@@ -821,97 +826,100 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1">
       <c r="A31" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="5" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B36" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B37" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
         <v>33</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>7</v>
       </c>
       <c r="B40">
         <v>3300000</v>
@@ -935,10 +943,14 @@
         <f>$B$37*E40</f>
         <v>74.79961997803737</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="10">
+        <f>G40/412*547</f>
+        <v>99.309204194141842</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B41">
         <v>2500000</v>
@@ -959,13 +971,17 @@
         <v>22.666551508496173</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" ref="G41:G44" si="4">$B$37*E41</f>
+        <f t="shared" ref="G41:H44" si="4">$B$37*E41</f>
         <v>56.666378771240431</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="10">
+        <f t="shared" ref="H41:H44" si="5">G41/412*547</f>
+        <v>75.234245601622618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B42">
         <v>1900000</v>
@@ -989,10 +1005,14 @@
         <f t="shared" si="4"/>
         <v>43.066447866142731</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="10">
+        <f t="shared" si="5"/>
+        <v>57.178026657233183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B43">
         <v>1700000</v>
@@ -1016,10 +1036,14 @@
         <f t="shared" si="4"/>
         <v>38.533137564443493</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="10">
+        <f t="shared" si="5"/>
+        <v>51.15928700910338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B44">
         <v>1500000</v>
@@ -1042,6 +1066,10 @@
       <c r="G44" s="10">
         <f t="shared" si="4"/>
         <v>33.999827262744262</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="5"/>
+        <v>45.140547360973571</v>
       </c>
     </row>
   </sheetData>
